--- a/DB_Rewards.xlsx
+++ b/DB_Rewards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Katalon Studio\ACCPartner-CMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2FB4E52-394E-43C4-8EE9-37F68DE88F1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD9BC1B-AFBA-4632-A157-A3E692350914}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7170" yWindow="5175" windowWidth="9975" windowHeight="6000" xr2:uid="{52E71E8F-F3BC-4268-B64A-9CF89CCA309A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{52E71E8F-F3BC-4268-B64A-9CF89CCA309A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -415,14 +415,15 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" customWidth="1"/>
     <col min="5" max="5" width="36.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -437,10 +438,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -451,13 +452,13 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
         <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -468,13 +469,13 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
         <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
